--- a/webinar/1-geocoding/geocoding-compare.xlsx
+++ b/webinar/1-geocoding/geocoding-compare.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorvatsenko/Projects/MapWidget/webinar/1-geocoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D903684-A593-574E-BCC9-B46F2B1B0B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E54FD-BCCC-B149-9F11-68B026D5B310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3060" yWindow="-19940" windowWidth="31360" windowHeight="19940" xr2:uid="{3FCD7FEE-B963-5540-BEF0-15576DA367EB}"/>
+    <workbookView xWindow="6040" yWindow="2020" windowWidth="25600" windowHeight="15500" xr2:uid="{3FCD7FEE-B963-5540-BEF0-15576DA367EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$102</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="146">
   <si>
     <t>4920 State Road 33 N, Lakeland, FL, 33805, US</t>
   </si>
@@ -464,6 +464,9 @@
   <si>
     <t>OpenStreet 
 5p</t>
+  </si>
+  <si>
+    <t>Zoho + AI</t>
   </si>
 </sst>
 </file>
@@ -861,19 +864,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBB3533-ABB3-6F46-93A7-563FD6B0F7BD}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>133</v>
       </c>
@@ -881,59 +884,68 @@
         <v>134</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -941,59 +953,68 @@
         <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>107</v>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>139</v>
+      <c r="E5" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>105</v>
+      <c r="C6" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1001,219 +1022,252 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>105</v>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>105</v>
+      <c r="C10" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>105</v>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>105</v>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>105</v>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>105</v>
+      <c r="C17" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1221,39 +1275,45 @@
         <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>105</v>
+      <c r="C19" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1261,19 +1321,22 @@
         <v>104</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1281,59 +1344,68 @@
         <v>104</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1341,19 +1413,22 @@
         <v>104</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1361,19 +1436,22 @@
         <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1381,59 +1459,68 @@
         <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>107</v>
+      <c r="C27" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>105</v>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1441,99 +1528,114 @@
         <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>105</v>
+      <c r="C31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>105</v>
+      <c r="C32" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1541,99 +1643,114 @@
         <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
+      <c r="C35" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1641,19 +1758,22 @@
         <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1661,19 +1781,22 @@
         <v>104</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1681,19 +1804,22 @@
         <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1701,19 +1827,22 @@
         <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1721,39 +1850,45 @@
         <v>104</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1761,59 +1896,68 @@
         <v>104</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>105</v>
+      <c r="C46" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>105</v>
+      <c r="C47" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1821,19 +1965,22 @@
         <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1841,79 +1988,91 @@
         <v>104</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1921,19 +2080,22 @@
         <v>104</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1941,39 +2103,45 @@
         <v>104</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1981,39 +2149,45 @@
         <v>104</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>105</v>
+      <c r="C57" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2021,19 +2195,22 @@
         <v>104</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2041,219 +2218,252 @@
         <v>104</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F62" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>105</v>
+      <c r="C63" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>105</v>
+      <c r="C64" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>105</v>
+      <c r="C65" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>105</v>
+      <c r="C66" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>105</v>
+      <c r="C67" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2261,19 +2471,22 @@
         <v>104</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2281,59 +2494,68 @@
         <v>104</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>105</v>
+      <c r="C72" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2341,39 +2563,45 @@
         <v>104</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>105</v>
+      <c r="C75" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2381,39 +2609,45 @@
         <v>104</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>105</v>
+      <c r="C77" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2421,219 +2655,252 @@
         <v>104</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>105</v>
+      <c r="C79" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F81" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F84" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>105</v>
+      <c r="C85" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>105</v>
+      <c r="C86" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>105</v>
+      <c r="C88" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2641,19 +2908,22 @@
         <v>104</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2661,19 +2931,22 @@
         <v>104</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F90" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2681,79 +2954,91 @@
         <v>104</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F91" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>105</v>
+      <c r="C93" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F93" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F94" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2761,19 +3046,22 @@
         <v>104</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2781,79 +3069,91 @@
         <v>103</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F96" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>105</v>
+      <c r="C97" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F97" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>105</v>
+      <c r="C98" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2861,58 +3161,67 @@
         <v>104</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>105</v>
+      <c r="C101" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>60</v>
       </c>
       <c r="C102" s="1">
+        <v>71</v>
+      </c>
+      <c r="D102" s="1">
         <f>36+21</f>
         <v>57</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <v>67</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>90</v>
       </c>
-      <c r="F102" s="1">
-        <v>100</v>
+      <c r="G102" s="1">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F102" xr:uid="{06011A8D-5AD6-0D43-827F-40B680263316}"/>
+  <autoFilter ref="A1:G102" xr:uid="{06011A8D-5AD6-0D43-827F-40B680263316}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>